--- a/6-Quantification/Results/Example_col1-6.xlsx
+++ b/6-Quantification/Results/Example_col1-6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opentrons\Desktop\Brenna\Experiments\2023-04-09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnortonb/Documents/Automation_paper/opentrons/6-Quantification/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD60077-3B11-C84C-93FA-B58DA7B58906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9440" windowHeight="6920"/>
+    <workbookView xWindow="120" yWindow="760" windowWidth="20420" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Software Version</t>
   </si>
@@ -34,13 +35,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\Opentrons\Desktop\Brenna\Experiments\2023-04-09\2023-04-09-P740_2_round2_BCA_col1-6.xpt</t>
-  </si>
-  <si>
     <t>Protocol File Path:</t>
-  </si>
-  <si>
-    <t>C:\Users\Opentrons\Desktop\Brenna\Protocols\BCA_480nm.prt</t>
   </si>
   <si>
     <t>Plate Number</t>
@@ -310,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -799,20 +794,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -820,119 +815,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>45025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.58401620370370366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>22041210</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="6">
         <v>1</v>
@@ -971,102 +956,102 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1074,33 +1059,33 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1108,33 +1093,33 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1142,33 +1127,33 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1176,33 +1161,33 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -1210,33 +1195,33 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1244,24 +1229,24 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>23.1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
       <c r="C36" s="6">
         <v>1</v>
@@ -1300,9 +1285,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="10">
         <v>0.54</v>
@@ -1336,9 +1321,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="10">
         <v>0.504</v>
@@ -1372,9 +1357,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="10">
         <v>0.49399999999999999</v>
@@ -1406,9 +1391,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="10">
         <v>0.50600000000000001</v>
@@ -1440,9 +1425,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="10">
         <v>0.50800000000000001</v>
@@ -1474,9 +1459,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="11">
         <v>0.7</v>
@@ -1508,9 +1493,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="10">
         <v>0.55100000000000005</v>
@@ -1542,9 +1527,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="11">
         <v>0.70099999999999996</v>
